--- a/small_test.xlsx
+++ b/small_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{EF37369E-3C65-4422-A385-43B3E87FAA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B147F07-1953-47F7-BF52-30518F1B227B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{EF37369E-3C65-4422-A385-43B3E87FAA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0903F178-381A-408E-A31C-431B7AA1DAF9}"/>
   <bookViews>
-    <workbookView xWindow="29820" yWindow="1290" windowWidth="25650" windowHeight="13110" xr2:uid="{09C630A7-C619-4F8C-AEEC-948C38E3CD87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09C630A7-C619-4F8C-AEEC-948C38E3CD87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Comment</t>
   </si>
@@ -53,19 +53,7 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Neutral</t>
-  </si>
-  <si>
     <t>Negative</t>
-  </si>
-  <si>
-    <t>Sign in/access</t>
-  </si>
-  <si>
-    <t>Findability/Nav</t>
-  </si>
-  <si>
-    <t>Answered Question</t>
   </si>
   <si>
     <t>Not user friendly</t>
@@ -81,6 +69,9 @@
   </si>
   <si>
     <t>website easy to use and I can usually find what I need, if not someone is always available to help</t>
+  </si>
+  <si>
+    <t>Integration</t>
   </si>
 </sst>
 </file>
@@ -654,7 +645,7 @@
   <dimension ref="A1:C1888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -677,54 +668,54 @@
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>4</v>
